--- a/Daten/Conflicts.xlsx
+++ b/Daten/Conflicts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Meine Ablage\UniTuebingen\Master\Vorlesungen\1\Data Literacy\Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A967037E-2B76-4A41-A6B8-1A58F4C01295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823C3F8-5EE3-46F2-BD53-E68C7C21365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F0D5C7E-DFE7-42CA-AEC1-989091400BBF}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Krim</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>relevant_dates</t>
+  </si>
+  <si>
+    <t>Crimea</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
@@ -540,16 +540,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>6</v>
@@ -563,16 +563,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>7</v>
@@ -586,16 +586,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
@@ -609,16 +609,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>9</v>
@@ -632,16 +632,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
